--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aakanksha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5214CAAA-62EC-472B-93B5-2903A992C81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEDAAB4B-0A51-4A82-B2A9-76493E5C8697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5BB353A8-6D0B-4EC7-B165-44C03D190F2F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{5BB353A8-6D0B-4EC7-B165-44C03D190F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>d18O</t>
   </si>
@@ -82,6 +82,9 @@
   <si>
     <t>Arz et al., 2006</t>
   </si>
+  <si>
+    <t>% dolo wt.</t>
+  </si>
 </sst>
 </file>
 
@@ -115,6 +118,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1622,7 +1626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4180EE-28A7-4187-882D-4D6A0D3661C1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2681,13 +2685,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86BAF50-6BD8-4710-A51A-4F56AD2A8A51}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -3064,7 +3069,7 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3518,18 +3523,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB55B9E9-1051-4264-8B2E-74426EE01314}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3537,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.1179481504989679</v>
+        <v>1.8820518500000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3545,7 +3553,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>-1.6614289405523399</v>
+        <v>1.338571059</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3553,7 +3561,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>-0.93071860323575595</v>
+        <v>2.0692813970000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3561,7 +3569,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>-1.2775513474530991</v>
+        <v>1.7224486530000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3569,7 +3577,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>-1.1175023642266231</v>
+        <v>1.8824976360000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3577,7 +3585,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>-1.483789824859814</v>
+        <v>1.5162101750000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3585,7 +3593,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>-0.67971104354836087</v>
+        <v>2.3202889560000002</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -3593,7 +3601,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>-0.65494451319773317</v>
+        <v>2.3450554870000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -3601,7 +3609,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>-0.80415854918486795</v>
+        <v>2.1958414510000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -3609,7 +3617,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>-1.3769029553124399</v>
+        <v>1.623097045</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -3617,7 +3625,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>-1.05434247613131</v>
+        <v>1.945657524</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -3625,7 +3633,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>-0.19005194816760879</v>
+        <v>2.8099480520000002</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -3633,7 +3641,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>-1.658229717889788</v>
+        <v>1.3417702819999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -3641,7 +3649,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>-1.0501892910764861</v>
+        <v>1.9498107090000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -3649,7 +3657,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>-1.628233434597981</v>
+        <v>1.3717665649999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -3657,7 +3665,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>-1.3493478653879161</v>
+        <v>1.6506521350000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -3665,7 +3673,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>-0.95313116609236714</v>
+        <v>2.0468688340000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -3673,7 +3681,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>-0.44877801080863772</v>
+        <v>2.5512219890000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -3681,7 +3689,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>-0.42928446618135568</v>
+        <v>2.5707155340000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -3689,7 +3697,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>-0.49064246067512379</v>
+        <v>2.5093575389999998</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -3697,7 +3705,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>-1.307042131088652</v>
+        <v>1.692957869</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -3705,7 +3713,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>-0.62974409497742023</v>
+        <v>2.3702559050000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -3713,7 +3721,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>-1.432412157331632</v>
+        <v>1.5675878430000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3721,7 +3729,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>-1.451140334904959</v>
+        <v>1.5488596649999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -3729,7 +3737,7 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>-1.239018761252483</v>
+        <v>1.7609812389999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -3737,7 +3745,7 @@
         <v>2500</v>
       </c>
       <c r="B27">
-        <v>-0.91893875750410214</v>
+        <v>2.0810612420000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -3745,7 +3753,7 @@
         <v>2600</v>
       </c>
       <c r="B28">
-        <v>-0.74016120484642056</v>
+        <v>2.2598387949999998</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -3753,7 +3761,7 @@
         <v>2700</v>
       </c>
       <c r="B29">
-        <v>-1.536259880319192</v>
+        <v>1.46374012</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -3761,7 +3769,7 @@
         <v>2800</v>
       </c>
       <c r="B30">
-        <v>-1.488490253065341</v>
+        <v>1.5115097470000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -3769,7 +3777,7 @@
         <v>2900</v>
       </c>
       <c r="B31">
-        <v>-0.91286747772597754</v>
+        <v>2.0871325220000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -3777,7 +3785,7 @@
         <v>3000</v>
       </c>
       <c r="B32">
-        <v>-0.32104703436292642</v>
+        <v>2.6789529660000002</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -3785,7 +3793,7 @@
         <v>3100</v>
       </c>
       <c r="B33">
-        <v>-1.5336870163202481</v>
+        <v>1.466312984</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -3793,7 +3801,7 @@
         <v>3200</v>
       </c>
       <c r="B34">
-        <v>-0.21183957838024431</v>
+        <v>2.7881604219999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -3801,7 +3809,7 @@
         <v>3300</v>
       </c>
       <c r="B35">
-        <v>-0.26458953541305791</v>
+        <v>2.7354104650000002</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -3809,7 +3817,7 @@
         <v>3400</v>
       </c>
       <c r="B36">
-        <v>-1.841863393789267E-2</v>
+        <v>2.9815813659999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -3817,7 +3825,7 @@
         <v>3500</v>
       </c>
       <c r="B37">
-        <v>-1.554180265125285</v>
+        <v>1.4458197349999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -3825,7 +3833,7 @@
         <v>3600</v>
       </c>
       <c r="B38">
-        <v>-0.45902905156789209</v>
+        <v>2.540970948</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -3833,7 +3841,7 @@
         <v>3700</v>
       </c>
       <c r="B39">
-        <v>-0.84283044473146052</v>
+        <v>2.1571695549999998</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -3841,7 +3849,7 @@
         <v>3800</v>
       </c>
       <c r="B40">
-        <v>-4.966042025866102E-2</v>
+        <v>2.9503395800000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -3849,7 +3857,7 @@
         <v>3900</v>
       </c>
       <c r="B41">
-        <v>-0.80958933001142275</v>
+        <v>2.1904106699999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -3857,7 +3865,7 @@
         <v>4000</v>
       </c>
       <c r="B42">
-        <v>-1.1792993125957709</v>
+        <v>1.820700687</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -3865,7 +3873,7 @@
         <v>4100</v>
       </c>
       <c r="B43">
-        <v>-1.33913260717175</v>
+        <v>1.660867393</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -3873,7 +3881,7 @@
         <v>4200</v>
       </c>
       <c r="B44">
-        <v>-0.42432862480554528</v>
+        <v>2.5756713750000002</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -3881,7 +3889,7 @@
         <v>4300</v>
       </c>
       <c r="B45">
-        <v>-0.54093611598031943</v>
+        <v>2.4590638839999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -3889,7 +3897,7 @@
         <v>4400</v>
       </c>
       <c r="B46">
-        <v>-0.64375649601308949</v>
+        <v>2.356243504</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -3897,7 +3905,7 @@
         <v>4500</v>
       </c>
       <c r="B47">
-        <v>-0.99389825449880687</v>
+        <v>2.0061017460000001</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -3905,7 +3913,7 @@
         <v>4600</v>
       </c>
       <c r="B48">
-        <v>-1.973311834761772</v>
+        <v>1.0266881649999999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -3913,7 +3921,7 @@
         <v>4700</v>
       </c>
       <c r="B49">
-        <v>-1.3707307610871899</v>
+        <v>1.6292692390000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -3921,7 +3929,7 @@
         <v>4800</v>
       </c>
       <c r="B50">
-        <v>-1.6645168887447199</v>
+        <v>1.3354831110000001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -3929,7 +3937,7 @@
         <v>4900</v>
       </c>
       <c r="B51">
-        <v>-7.9816316021711131E-2</v>
+        <v>2.9201836839999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -3937,7 +3945,7 @@
         <v>5000</v>
       </c>
       <c r="B52">
-        <v>-1.7086170240931171</v>
+        <v>1.291382976</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -3945,7 +3953,7 @@
         <v>5100</v>
       </c>
       <c r="B53">
-        <v>-8.7491785443418735E-2</v>
+        <v>2.9125082149999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -3953,7 +3961,7 @@
         <v>5200</v>
       </c>
       <c r="B54">
-        <v>-0.45757885479073979</v>
+        <v>2.542421145</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -3961,7 +3969,7 @@
         <v>5300</v>
       </c>
       <c r="B55">
-        <v>-1.4944483072298429</v>
+        <v>1.5055516929999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -3969,7 +3977,7 @@
         <v>5400</v>
       </c>
       <c r="B56">
-        <v>-0.15471901875135341</v>
+        <v>2.8452809810000002</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -3977,7 +3985,7 @@
         <v>5500</v>
       </c>
       <c r="B57">
-        <v>-0.83930349023524964</v>
+        <v>2.1606965100000002</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -3985,7 +3993,7 @@
         <v>5600</v>
       </c>
       <c r="B58">
-        <v>-0.61094748171302071</v>
+        <v>2.3890525180000002</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -3993,7 +4001,7 @@
         <v>5700</v>
       </c>
       <c r="B59">
-        <v>-1.5085737933704739</v>
+        <v>1.4914262069999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -4001,7 +4009,7 @@
         <v>5800</v>
       </c>
       <c r="B60">
-        <v>-1.0634332601767049</v>
+        <v>1.93656674</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -4009,7 +4017,7 @@
         <v>5900</v>
       </c>
       <c r="B61">
-        <v>-1.4728360628357691</v>
+        <v>1.5271639370000001</v>
       </c>
     </row>
   </sheetData>
@@ -4022,10 +4030,14 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aakanksha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEDAAB4B-0A51-4A82-B2A9-76493E5C8697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB081854-D8C9-4835-96DC-E52C955D2376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{5BB353A8-6D0B-4EC7-B165-44C03D190F2F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sources" sheetId="5" r:id="rId1"/>
-    <sheet name="Red_sea" sheetId="12" r:id="rId2"/>
-    <sheet name="Gulf_of_Oman" sheetId="6" r:id="rId3"/>
-    <sheet name="F1" sheetId="8" r:id="rId4"/>
-    <sheet name="F2" sheetId="9" r:id="rId5"/>
-    <sheet name="F3" sheetId="10" r:id="rId6"/>
+    <sheet name="A" sheetId="8" r:id="rId1"/>
+    <sheet name="B" sheetId="12" r:id="rId2"/>
+    <sheet name="C" sheetId="9" r:id="rId3"/>
+    <sheet name="D" sheetId="6" r:id="rId4"/>
+    <sheet name="E" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,30 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>d18O</t>
   </si>
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>Data Source</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>NOAA</t>
-  </si>
-  <si>
-    <t>Gulf of Oman</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/pub/data/paleo/contributions_by_author/cullen2000/cullen2000.txt</t>
   </si>
   <si>
     <t>%wt Dolo</t>
@@ -77,12 +58,6 @@
     <t xml:space="preserve">Age </t>
   </si>
   <si>
-    <t>Red Sea</t>
-  </si>
-  <si>
-    <t>Arz et al., 2006</t>
-  </si>
-  <si>
     <t>% dolo wt.</t>
   </si>
 </sst>
@@ -90,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,32 +82,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -159,21 +120,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -256,7 +213,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Gulf_of_Oman!$A$2:$A$96</c:f>
+              <c:f>D!$A$2:$A$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
@@ -397,7 +354,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Gulf_of_Oman!$B$2:$B$96</c:f>
+              <c:f>D!$B$2:$B$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
@@ -1623,1448 +1580,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4180EE-28A7-4187-882D-4D6A0D3661C1}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{F3DA0025-C9E5-4A34-AA7A-85F553D2A19F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4BCE64-88EE-4F10-B0E3-C5695E02C1AE}">
-  <dimension ref="A1:B123"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>4054.2757122846601</v>
-      </c>
-      <c r="B2">
-        <v>-1.45802638202514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>4055.3924049925599</v>
-      </c>
-      <c r="B3">
-        <v>-1.21999274683756</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>4055.85144601413</v>
-      </c>
-      <c r="B4">
-        <v>-1.10183836995097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4055.8571366053102</v>
-      </c>
-      <c r="B5">
-        <v>-0.99230840013640198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4062.31649955176</v>
-      </c>
-      <c r="B6">
-        <v>-1.3441842086745599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>4067.3297899425002</v>
-      </c>
-      <c r="B7">
-        <v>-0.85776764981298703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>4070.27944314463</v>
-      </c>
-      <c r="B8">
-        <v>-0.78532263040807104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>4070.6027003378499</v>
-      </c>
-      <c r="B9">
-        <v>-0.64646967654864895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>4089.3630664723</v>
-      </c>
-      <c r="B10">
-        <v>-0.53693970673407299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>4108.9923542650004</v>
-      </c>
-      <c r="B11">
-        <v>-0.42309753338349099</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>4117.29507733633</v>
-      </c>
-      <c r="B12">
-        <v>-0.30925536003290899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>4118.8119360288301</v>
-      </c>
-      <c r="B13">
-        <v>-0.19541318668232699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>4122.6962914134201</v>
-      </c>
-      <c r="B14">
-        <v>-8.6745657574953602E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>4180.79406588644</v>
-      </c>
-      <c r="B15">
-        <v>0.14611333336941901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>4181.2531069080096</v>
-      </c>
-      <c r="B16">
-        <v>0.25995550672000101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>4181.7121479295902</v>
-      </c>
-      <c r="B17">
-        <v>0.373797680070583</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>4182.1484265864601</v>
-      </c>
-      <c r="B18">
-        <v>4.1973617974852599E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>4184.6646163183505</v>
-      </c>
-      <c r="B19">
-        <v>0.487639853421165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>4193.94063559808</v>
-      </c>
-      <c r="B20">
-        <v>-1.9475282413246E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>4195.0973668086899</v>
-      </c>
-      <c r="B21">
-        <v>0.601482026771747</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>4199.8859992837597</v>
-      </c>
-      <c r="B22">
-        <v>1.1706928935246499</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>4200.3450403053303</v>
-      </c>
-      <c r="B23">
-        <v>1.28453506687524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>4200.8040813269099</v>
-      </c>
-      <c r="B24">
-        <v>1.3983772402258201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>4201.2403599837799</v>
-      </c>
-      <c r="B25">
-        <v>1.05685072017407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>4203.0366899318396</v>
-      </c>
-      <c r="B26">
-        <v>0.71532420012233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>4203.4693745311197</v>
-      </c>
-      <c r="B27">
-        <v>0.829166373472912</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>4203.9547719749899</v>
-      </c>
-      <c r="B28">
-        <v>0.93647215409523099</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>4205.3689892636803</v>
-      </c>
-      <c r="B29">
-        <v>1.8537459336281501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>4205.3689892636803</v>
-      </c>
-      <c r="B30">
-        <v>1.95723881849231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>4206.7090181044396</v>
-      </c>
-      <c r="B31">
-        <v>1.6260615869269801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>4207.1566779436598</v>
-      </c>
-      <c r="B32">
-        <v>1.5122194135764</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>4207.1680591260201</v>
-      </c>
-      <c r="B33">
-        <v>1.73990376027756</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>4224.2986354311497</v>
-      </c>
-      <c r="B34">
-        <v>-0.133317455763827</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>4225.7933188834404</v>
-      </c>
-      <c r="B35">
-        <v>-0.24715962911441</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>4230.8608354895796</v>
-      </c>
-      <c r="B36">
-        <v>-0.32995393700574199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>4290.9013145614799</v>
-      </c>
-      <c r="B37">
-        <v>-0.88415833545334899</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>4291.3603555830496</v>
-      </c>
-      <c r="B38">
-        <v>-0.76527088396563803</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>4291.8193966046301</v>
-      </c>
-      <c r="B39">
-        <v>-0.66113116857107201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>4292.2784376261998</v>
-      </c>
-      <c r="B40">
-        <v>-0.54297679168448298</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>4307.8383656031901</v>
-      </c>
-      <c r="B41">
-        <v>-0.44379611035632399</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>4342.15836615238</v>
-      </c>
-      <c r="B42">
-        <v>-0.30925536003290899</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>4343.3571840269096</v>
-      </c>
-      <c r="B43">
-        <v>-0.19541318668232699</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>4353.0096701618804</v>
-      </c>
-      <c r="B44">
-        <v>-1.00265768862281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>4379.9882821903702</v>
-      </c>
-      <c r="B45">
-        <v>-1.1164998619733999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>4386.0273864475603</v>
-      </c>
-      <c r="B46">
-        <v>-1.23034203532398</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>4396.0786144139001</v>
-      </c>
-      <c r="B47">
-        <v>-0.87846622678581998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>4410.1597564631602</v>
-      </c>
-      <c r="B48">
-        <v>-0.76462405343523798</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>4426.1217006196202</v>
-      </c>
-      <c r="B49">
-        <v>-0.65078188008465498</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>4453.40673643029</v>
-      </c>
-      <c r="B50">
-        <v>-0.53693970673407299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>4476.79775338952</v>
-      </c>
-      <c r="B51">
-        <v>-0.42309753338349099</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>4478.6168457022904</v>
-      </c>
-      <c r="B52">
-        <v>-0.30925536003290899</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>4479.0758867238701</v>
-      </c>
-      <c r="B53">
-        <v>-0.236810340627993</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>4479.6047323305402</v>
-      </c>
-      <c r="B54">
-        <v>-8.1571013331745296E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>4524.7674046538305</v>
-      </c>
-      <c r="B55">
-        <v>-0.67148045705748904</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>4561.3211880569297</v>
-      </c>
-      <c r="B56">
-        <v>-0.78532263040807104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>4563.3231922289397</v>
-      </c>
-      <c r="B57">
-        <v>-0.89419714528517302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>4565.5842537897597</v>
-      </c>
-      <c r="B58">
-        <v>-1.00413615840659</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>4665.56577291746</v>
-      </c>
-      <c r="B59">
-        <v>-0.58868614916615603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>4689.5119967706296</v>
-      </c>
-      <c r="B60">
-        <v>-0.70499243882302798</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>4692.2040173393698</v>
-      </c>
-      <c r="B61">
-        <v>-0.47484397581557403</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>4703.7005922357703</v>
-      </c>
-      <c r="B62">
-        <v>-0.80832104926677395</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>4743.5783583373004</v>
-      </c>
-      <c r="B63">
-        <v>-1.15789701591906</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>4743.6026923890904</v>
-      </c>
-      <c r="B64">
-        <v>-0.93021266921790302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>4745.3860694677196</v>
-      </c>
-      <c r="B65">
-        <v>-1.2717391892696399</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>4745.4622149972702</v>
-      </c>
-      <c r="B66">
-        <v>-1.0440548425684799</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>4904.9347202285498</v>
-      </c>
-      <c r="B67">
-        <v>-0.88881551527223601</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>4911.1747942116499</v>
-      </c>
-      <c r="B68">
-        <v>-0.77497334192165401</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>4911.5832623623201</v>
-      </c>
-      <c r="B69">
-        <v>-0.66113116857107201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>4923.26636219173</v>
-      </c>
-      <c r="B70">
-        <v>-1.2613899007832301</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>4923.7083314397696</v>
-      </c>
-      <c r="B71">
-        <v>-1.4890742474843901</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>4923.7310938044802</v>
-      </c>
-      <c r="B72">
-        <v>-1.00265768862281</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>4925.9921553652903</v>
-      </c>
-      <c r="B73">
-        <v>-1.14754772743265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>4926.8874750437399</v>
-      </c>
-      <c r="B74">
-        <v>-1.37523207413381</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>5031.8128690516096</v>
-      </c>
-      <c r="B75">
-        <v>-0.58868614916615603</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>5049.7618086401799</v>
-      </c>
-      <c r="B76">
-        <v>-0.69562879685912704</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>5050.5098777630801</v>
-      </c>
-      <c r="B77">
-        <v>-0.50071719703161499</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>5084.9683042008101</v>
-      </c>
-      <c r="B78">
-        <v>-0.81637049586732102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>5157.4705426505498</v>
-      </c>
-      <c r="B79">
-        <v>-0.93021266921790302</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>5180.1425985780397</v>
-      </c>
-      <c r="B80">
-        <v>-1.0440548425684799</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>5193.3019852924899</v>
-      </c>
-      <c r="B81">
-        <v>-1.15789701591906</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>5257.12554566777</v>
-      </c>
-      <c r="B82">
-        <v>-0.87846622678581998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>5260.3889969607299</v>
-      </c>
-      <c r="B83">
-        <v>-0.76462405343523798</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>5386.0699177453598</v>
-      </c>
-      <c r="B84">
-        <v>-0.92651649475846798</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>5390.4777732800103</v>
-      </c>
-      <c r="B85">
-        <v>-1.0337055540820601</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>5396.5391729264602</v>
-      </c>
-      <c r="B86">
-        <v>-0.28338213881686802</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>5398.3757163854998</v>
-      </c>
-      <c r="B87">
-        <v>-0.464494687329157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>5398.8233762247301</v>
-      </c>
-      <c r="B88">
-        <v>-0.58299404049862702</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>5398.8347574070804</v>
-      </c>
-      <c r="B89">
-        <v>-0.350652513978575</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>5405.1419241376097</v>
-      </c>
-      <c r="B90">
-        <v>-0.68786683049431496</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>5414.2259096759199</v>
-      </c>
-      <c r="B91">
-        <v>-0.80602120738090399</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>5539.1379132644197</v>
-      </c>
-      <c r="B92">
-        <v>-0.66113116857107201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>5560.9124511086302</v>
-      </c>
-      <c r="B93">
-        <v>-0.55763828370690605</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>5639.7512390592801</v>
-      </c>
-      <c r="B94">
-        <v>-0.44379611035632399</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>5657.5462094478298</v>
-      </c>
-      <c r="B95">
-        <v>-0.66113116857107201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>5662.9505849644602</v>
-      </c>
-      <c r="B96">
-        <v>-0.77963052174054104</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>5681.7511258446202</v>
-      </c>
-      <c r="B97">
-        <v>-0.55246363946369803</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>5756.12200201018</v>
-      </c>
-      <c r="B98">
-        <v>-0.48001862005878199</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>5786.4855061353201</v>
-      </c>
-      <c r="B99">
-        <v>-0.58063670256560995</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>5801.4295856894196</v>
-      </c>
-      <c r="B100">
-        <v>-0.70070197748972396</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>5817.5825997245902</v>
-      </c>
-      <c r="B101">
-        <v>-0.81637049586732102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>5863.3254684654103</v>
-      </c>
-      <c r="B102">
-        <v>-1.84095005602256</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>5863.7845094869899</v>
-      </c>
-      <c r="B103">
-        <v>-1.7271078826719699</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>5869.6837556733399</v>
-      </c>
-      <c r="B104">
-        <v>-1.61326570932139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>5876.9430531508897</v>
-      </c>
-      <c r="B105">
-        <v>-1.38558136262023</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>5880.1221967548599</v>
-      </c>
-      <c r="B106">
-        <v>-1.2717391892696399</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>5887.75918975064</v>
-      </c>
-      <c r="B107">
-        <v>-0.93826211581844898</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>5897.2660521687403</v>
-      </c>
-      <c r="B108">
-        <v>-1.15789701591906</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>5902.9824396292897</v>
-      </c>
-      <c r="B109">
-        <v>-1.0360053959679301</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>5938.1738142105596</v>
-      </c>
-      <c r="B110">
-        <v>-0.81637049586732102</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>5975.6262503526405</v>
-      </c>
-      <c r="B111">
-        <v>-0.70252832251673802</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>5979.0398463130796</v>
-      </c>
-      <c r="B112">
-        <v>-0.36100180246499203</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>5988.9071206505796</v>
-      </c>
-      <c r="B113">
-        <v>-0.48691814571639302</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>5991.3248842313897</v>
-      </c>
-      <c r="B114">
-        <v>-0.24715962911441</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>6015.6037551295803</v>
-      </c>
-      <c r="B115">
-        <v>-0.58868614916615603</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116">
-        <v>6034.91937414937</v>
-      </c>
-      <c r="B116">
-        <v>-0.92694447285377102</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117">
-        <v>6043.6350429483</v>
-      </c>
-      <c r="B117">
-        <v>-0.70252832251673802</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118">
-        <v>6046.5662980777297</v>
-      </c>
-      <c r="B118">
-        <v>-0.81637049586732102</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119">
-        <v>6055.6219255033502</v>
-      </c>
-      <c r="B119">
-        <v>-1.0440548425684799</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120">
-        <v>6058.3363374945602</v>
-      </c>
-      <c r="B120">
-        <v>-1.14876529078399</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121">
-        <v>6064.6775529289598</v>
-      </c>
-      <c r="B121">
-        <v>-1.2717391892696399</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122">
-        <v>6071.0187683633603</v>
-      </c>
-      <c r="B122">
-        <v>-1.38558136262023</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123">
-        <v>6073.7331803545803</v>
-      </c>
-      <c r="B123">
-        <v>-1.4994235359708099</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B123">
-    <sortCondition ref="A1:A123"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86BAF50-6BD8-4710-A51A-4F56AD2A8A51}">
-  <dimension ref="A1:B45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1388.5</v>
-      </c>
-      <c r="B2">
-        <v>1.3093999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1471.4</v>
-      </c>
-      <c r="B3">
-        <v>1.4174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1554.3</v>
-      </c>
-      <c r="B4">
-        <v>1.7926</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1637.1</v>
-      </c>
-      <c r="B5">
-        <v>1.7565999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1720</v>
-      </c>
-      <c r="B6">
-        <v>1.6667000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1802.9</v>
-      </c>
-      <c r="B7">
-        <v>1.4508000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1885.7</v>
-      </c>
-      <c r="B8">
-        <v>1.1732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1968.6</v>
-      </c>
-      <c r="B9">
-        <v>1.6307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2051.5</v>
-      </c>
-      <c r="B10">
-        <v>1.4456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2134.3000000000002</v>
-      </c>
-      <c r="B11">
-        <v>1.7205999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2217.1999999999998</v>
-      </c>
-      <c r="B12">
-        <v>1.7515000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2300.1</v>
-      </c>
-      <c r="B13">
-        <v>1.9597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2383</v>
-      </c>
-      <c r="B14">
-        <v>1.9621999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2465.8000000000002</v>
-      </c>
-      <c r="B15">
-        <v>1.6537999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2548.6999999999998</v>
-      </c>
-      <c r="B16">
-        <v>1.3736999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2631.6</v>
-      </c>
-      <c r="B17">
-        <v>1.4148000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2714.4</v>
-      </c>
-      <c r="B18">
-        <v>1.8774</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2797.3</v>
-      </c>
-      <c r="B19">
-        <v>1.7025999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2880.2</v>
-      </c>
-      <c r="B20">
-        <v>1.9827999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2963</v>
-      </c>
-      <c r="B21">
-        <v>1.9494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>3045.9</v>
-      </c>
-      <c r="B22">
-        <v>1.276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>3128.8</v>
-      </c>
-      <c r="B23">
-        <v>2.0522</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>3211.7</v>
-      </c>
-      <c r="B24">
-        <v>2.0573000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>3294.5</v>
-      </c>
-      <c r="B25">
-        <v>2.1806999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>3377.4</v>
-      </c>
-      <c r="B26">
-        <v>2.0958999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>3460.3</v>
-      </c>
-      <c r="B27">
-        <v>2.1575000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>3543.1</v>
-      </c>
-      <c r="B28">
-        <v>1.7797000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>3626</v>
-      </c>
-      <c r="B29">
-        <v>1.3736999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>3697.7</v>
-      </c>
-      <c r="B30">
-        <v>3.8563000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>3769.3</v>
-      </c>
-      <c r="B31">
-        <v>2.3092000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>3841</v>
-      </c>
-      <c r="B32">
-        <v>3.165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>3905.3</v>
-      </c>
-      <c r="B33">
-        <v>2.0804</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>3969.7</v>
-      </c>
-      <c r="B34">
-        <v>4.9767999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>4034</v>
-      </c>
-      <c r="B35">
-        <v>11.398999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>4087.3</v>
-      </c>
-      <c r="B36">
-        <v>1.7848999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>4140.7</v>
-      </c>
-      <c r="B37">
-        <v>2.0419</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>4194</v>
-      </c>
-      <c r="B38">
-        <v>1.4019999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>4407.7</v>
-      </c>
-      <c r="B39">
-        <v>1.9956</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>4621.3</v>
-      </c>
-      <c r="B40">
-        <v>2.0882000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>4835</v>
-      </c>
-      <c r="B41">
-        <v>1.8311999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>4900.3</v>
-      </c>
-      <c r="B42">
-        <v>1.4919</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>4965.6000000000004</v>
-      </c>
-      <c r="B43">
-        <v>2.3169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>5030.8</v>
-      </c>
-      <c r="B44">
-        <v>2.6021000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>5096.1000000000004</v>
-      </c>
-      <c r="B45">
-        <v>2.286</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B200">
-    <sortCondition ref="A1:A200"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA6DDE7-34EA-4DA6-BD07-D33B6ADA27B7}">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -3075,11 +1590,11 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3519,12 +2034,1017 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4BCE64-88EE-4F10-B0E3-C5695E02C1AE}">
+  <dimension ref="A1:B123"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="11.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>4054.2757122846601</v>
+      </c>
+      <c r="B2">
+        <v>-1.45802638202514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4055.3924049925599</v>
+      </c>
+      <c r="B3">
+        <v>-1.21999274683756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4055.85144601413</v>
+      </c>
+      <c r="B4">
+        <v>-1.10183836995097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4055.8571366053102</v>
+      </c>
+      <c r="B5">
+        <v>-0.99230840013640198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4062.31649955176</v>
+      </c>
+      <c r="B6">
+        <v>-1.3441842086745599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4067.3297899425002</v>
+      </c>
+      <c r="B7">
+        <v>-0.85776764981298703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>4070.27944314463</v>
+      </c>
+      <c r="B8">
+        <v>-0.78532263040807104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4070.6027003378499</v>
+      </c>
+      <c r="B9">
+        <v>-0.64646967654864895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>4089.3630664723</v>
+      </c>
+      <c r="B10">
+        <v>-0.53693970673407299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4108.9923542650004</v>
+      </c>
+      <c r="B11">
+        <v>-0.42309753338349099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4117.29507733633</v>
+      </c>
+      <c r="B12">
+        <v>-0.30925536003290899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>4118.8119360288301</v>
+      </c>
+      <c r="B13">
+        <v>-0.19541318668232699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4122.6962914134201</v>
+      </c>
+      <c r="B14">
+        <v>-8.6745657574953602E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4180.79406588644</v>
+      </c>
+      <c r="B15">
+        <v>0.14611333336941901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4181.2531069080096</v>
+      </c>
+      <c r="B16">
+        <v>0.25995550672000101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4181.7121479295902</v>
+      </c>
+      <c r="B17">
+        <v>0.373797680070583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>4182.1484265864601</v>
+      </c>
+      <c r="B18">
+        <v>4.1973617974852599E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>4184.6646163183505</v>
+      </c>
+      <c r="B19">
+        <v>0.487639853421165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>4193.94063559808</v>
+      </c>
+      <c r="B20">
+        <v>-1.9475282413246E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>4195.0973668086899</v>
+      </c>
+      <c r="B21">
+        <v>0.601482026771747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>4199.8859992837597</v>
+      </c>
+      <c r="B22">
+        <v>1.1706928935246499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>4200.3450403053303</v>
+      </c>
+      <c r="B23">
+        <v>1.28453506687524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>4200.8040813269099</v>
+      </c>
+      <c r="B24">
+        <v>1.3983772402258201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>4201.2403599837799</v>
+      </c>
+      <c r="B25">
+        <v>1.05685072017407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>4203.0366899318396</v>
+      </c>
+      <c r="B26">
+        <v>0.71532420012233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>4203.4693745311197</v>
+      </c>
+      <c r="B27">
+        <v>0.829166373472912</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>4203.9547719749899</v>
+      </c>
+      <c r="B28">
+        <v>0.93647215409523099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>4205.3689892636803</v>
+      </c>
+      <c r="B29">
+        <v>1.8537459336281501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>4205.3689892636803</v>
+      </c>
+      <c r="B30">
+        <v>1.95723881849231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>4206.7090181044396</v>
+      </c>
+      <c r="B31">
+        <v>1.6260615869269801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>4207.1566779436598</v>
+      </c>
+      <c r="B32">
+        <v>1.5122194135764</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>4207.1680591260201</v>
+      </c>
+      <c r="B33">
+        <v>1.73990376027756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>4224.2986354311497</v>
+      </c>
+      <c r="B34">
+        <v>-0.133317455763827</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>4225.7933188834404</v>
+      </c>
+      <c r="B35">
+        <v>-0.24715962911441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>4230.8608354895796</v>
+      </c>
+      <c r="B36">
+        <v>-0.32995393700574199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>4290.9013145614799</v>
+      </c>
+      <c r="B37">
+        <v>-0.88415833545334899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>4291.3603555830496</v>
+      </c>
+      <c r="B38">
+        <v>-0.76527088396563803</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>4291.8193966046301</v>
+      </c>
+      <c r="B39">
+        <v>-0.66113116857107201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>4292.2784376261998</v>
+      </c>
+      <c r="B40">
+        <v>-0.54297679168448298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>4307.8383656031901</v>
+      </c>
+      <c r="B41">
+        <v>-0.44379611035632399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>4342.15836615238</v>
+      </c>
+      <c r="B42">
+        <v>-0.30925536003290899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>4343.3571840269096</v>
+      </c>
+      <c r="B43">
+        <v>-0.19541318668232699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>4353.0096701618804</v>
+      </c>
+      <c r="B44">
+        <v>-1.00265768862281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>4379.9882821903702</v>
+      </c>
+      <c r="B45">
+        <v>-1.1164998619733999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>4386.0273864475603</v>
+      </c>
+      <c r="B46">
+        <v>-1.23034203532398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>4396.0786144139001</v>
+      </c>
+      <c r="B47">
+        <v>-0.87846622678581998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>4410.1597564631602</v>
+      </c>
+      <c r="B48">
+        <v>-0.76462405343523798</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>4426.1217006196202</v>
+      </c>
+      <c r="B49">
+        <v>-0.65078188008465498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>4453.40673643029</v>
+      </c>
+      <c r="B50">
+        <v>-0.53693970673407299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>4476.79775338952</v>
+      </c>
+      <c r="B51">
+        <v>-0.42309753338349099</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>4478.6168457022904</v>
+      </c>
+      <c r="B52">
+        <v>-0.30925536003290899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>4479.0758867238701</v>
+      </c>
+      <c r="B53">
+        <v>-0.236810340627993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>4479.6047323305402</v>
+      </c>
+      <c r="B54">
+        <v>-8.1571013331745296E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>4524.7674046538305</v>
+      </c>
+      <c r="B55">
+        <v>-0.67148045705748904</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>4561.3211880569297</v>
+      </c>
+      <c r="B56">
+        <v>-0.78532263040807104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>4563.3231922289397</v>
+      </c>
+      <c r="B57">
+        <v>-0.89419714528517302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>4565.5842537897597</v>
+      </c>
+      <c r="B58">
+        <v>-1.00413615840659</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>4665.56577291746</v>
+      </c>
+      <c r="B59">
+        <v>-0.58868614916615603</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>4689.5119967706296</v>
+      </c>
+      <c r="B60">
+        <v>-0.70499243882302798</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>4692.2040173393698</v>
+      </c>
+      <c r="B61">
+        <v>-0.47484397581557403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>4703.7005922357703</v>
+      </c>
+      <c r="B62">
+        <v>-0.80832104926677395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>4743.5783583373004</v>
+      </c>
+      <c r="B63">
+        <v>-1.15789701591906</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>4743.6026923890904</v>
+      </c>
+      <c r="B64">
+        <v>-0.93021266921790302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>4745.3860694677196</v>
+      </c>
+      <c r="B65">
+        <v>-1.2717391892696399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>4745.4622149972702</v>
+      </c>
+      <c r="B66">
+        <v>-1.0440548425684799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>4904.9347202285498</v>
+      </c>
+      <c r="B67">
+        <v>-0.88881551527223601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>4911.1747942116499</v>
+      </c>
+      <c r="B68">
+        <v>-0.77497334192165401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>4911.5832623623201</v>
+      </c>
+      <c r="B69">
+        <v>-0.66113116857107201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>4923.26636219173</v>
+      </c>
+      <c r="B70">
+        <v>-1.2613899007832301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>4923.7083314397696</v>
+      </c>
+      <c r="B71">
+        <v>-1.4890742474843901</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>4923.7310938044802</v>
+      </c>
+      <c r="B72">
+        <v>-1.00265768862281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>4925.9921553652903</v>
+      </c>
+      <c r="B73">
+        <v>-1.14754772743265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>4926.8874750437399</v>
+      </c>
+      <c r="B74">
+        <v>-1.37523207413381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>5031.8128690516096</v>
+      </c>
+      <c r="B75">
+        <v>-0.58868614916615603</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>5049.7618086401799</v>
+      </c>
+      <c r="B76">
+        <v>-0.69562879685912704</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>5050.5098777630801</v>
+      </c>
+      <c r="B77">
+        <v>-0.50071719703161499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>5084.9683042008101</v>
+      </c>
+      <c r="B78">
+        <v>-0.81637049586732102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>5157.4705426505498</v>
+      </c>
+      <c r="B79">
+        <v>-0.93021266921790302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>5180.1425985780397</v>
+      </c>
+      <c r="B80">
+        <v>-1.0440548425684799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>5193.3019852924899</v>
+      </c>
+      <c r="B81">
+        <v>-1.15789701591906</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>5257.12554566777</v>
+      </c>
+      <c r="B82">
+        <v>-0.87846622678581998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>5260.3889969607299</v>
+      </c>
+      <c r="B83">
+        <v>-0.76462405343523798</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>5386.0699177453598</v>
+      </c>
+      <c r="B84">
+        <v>-0.92651649475846798</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>5390.4777732800103</v>
+      </c>
+      <c r="B85">
+        <v>-1.0337055540820601</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>5396.5391729264602</v>
+      </c>
+      <c r="B86">
+        <v>-0.28338213881686802</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>5398.3757163854998</v>
+      </c>
+      <c r="B87">
+        <v>-0.464494687329157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>5398.8233762247301</v>
+      </c>
+      <c r="B88">
+        <v>-0.58299404049862702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>5398.8347574070804</v>
+      </c>
+      <c r="B89">
+        <v>-0.350652513978575</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>5405.1419241376097</v>
+      </c>
+      <c r="B90">
+        <v>-0.68786683049431496</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>5414.2259096759199</v>
+      </c>
+      <c r="B91">
+        <v>-0.80602120738090399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>5539.1379132644197</v>
+      </c>
+      <c r="B92">
+        <v>-0.66113116857107201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>5560.9124511086302</v>
+      </c>
+      <c r="B93">
+        <v>-0.55763828370690605</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>5639.7512390592801</v>
+      </c>
+      <c r="B94">
+        <v>-0.44379611035632399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>5657.5462094478298</v>
+      </c>
+      <c r="B95">
+        <v>-0.66113116857107201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>5662.9505849644602</v>
+      </c>
+      <c r="B96">
+        <v>-0.77963052174054104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>5681.7511258446202</v>
+      </c>
+      <c r="B97">
+        <v>-0.55246363946369803</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>5756.12200201018</v>
+      </c>
+      <c r="B98">
+        <v>-0.48001862005878199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>5786.4855061353201</v>
+      </c>
+      <c r="B99">
+        <v>-0.58063670256560995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>5801.4295856894196</v>
+      </c>
+      <c r="B100">
+        <v>-0.70070197748972396</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>5817.5825997245902</v>
+      </c>
+      <c r="B101">
+        <v>-0.81637049586732102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>5863.3254684654103</v>
+      </c>
+      <c r="B102">
+        <v>-1.84095005602256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>5863.7845094869899</v>
+      </c>
+      <c r="B103">
+        <v>-1.7271078826719699</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>5869.6837556733399</v>
+      </c>
+      <c r="B104">
+        <v>-1.61326570932139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>5876.9430531508897</v>
+      </c>
+      <c r="B105">
+        <v>-1.38558136262023</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>5880.1221967548599</v>
+      </c>
+      <c r="B106">
+        <v>-1.2717391892696399</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>5887.75918975064</v>
+      </c>
+      <c r="B107">
+        <v>-0.93826211581844898</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>5897.2660521687403</v>
+      </c>
+      <c r="B108">
+        <v>-1.15789701591906</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>5902.9824396292897</v>
+      </c>
+      <c r="B109">
+        <v>-1.0360053959679301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>5938.1738142105596</v>
+      </c>
+      <c r="B110">
+        <v>-0.81637049586732102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>5975.6262503526405</v>
+      </c>
+      <c r="B111">
+        <v>-0.70252832251673802</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>5979.0398463130796</v>
+      </c>
+      <c r="B112">
+        <v>-0.36100180246499203</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>5988.9071206505796</v>
+      </c>
+      <c r="B113">
+        <v>-0.48691814571639302</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>5991.3248842313897</v>
+      </c>
+      <c r="B114">
+        <v>-0.24715962911441</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>6015.6037551295803</v>
+      </c>
+      <c r="B115">
+        <v>-0.58868614916615603</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>6034.91937414937</v>
+      </c>
+      <c r="B116">
+        <v>-0.92694447285377102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>6043.6350429483</v>
+      </c>
+      <c r="B117">
+        <v>-0.70252832251673802</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>6046.5662980777297</v>
+      </c>
+      <c r="B118">
+        <v>-0.81637049586732102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>6055.6219255033502</v>
+      </c>
+      <c r="B119">
+        <v>-1.0440548425684799</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>6058.3363374945602</v>
+      </c>
+      <c r="B120">
+        <v>-1.14876529078399</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>6064.6775529289598</v>
+      </c>
+      <c r="B121">
+        <v>-1.2717391892696399</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>6071.0187683633603</v>
+      </c>
+      <c r="B122">
+        <v>-1.38558136262023</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>6073.7331803545803</v>
+      </c>
+      <c r="B123">
+        <v>-1.4994235359708099</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B123">
+    <sortCondition ref="A1:A123"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB55B9E9-1051-4264-8B2E-74426EE01314}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3532,12 +3052,12 @@
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -4022,15 +3542,399 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86BAF50-6BD8-4710-A51A-4F56AD2A8A51}">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1388.5</v>
+      </c>
+      <c r="B2">
+        <v>1.3093999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1471.4</v>
+      </c>
+      <c r="B3">
+        <v>1.4174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1554.3</v>
+      </c>
+      <c r="B4">
+        <v>1.7926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1637.1</v>
+      </c>
+      <c r="B5">
+        <v>1.7565999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1720</v>
+      </c>
+      <c r="B6">
+        <v>1.6667000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1802.9</v>
+      </c>
+      <c r="B7">
+        <v>1.4508000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1885.7</v>
+      </c>
+      <c r="B8">
+        <v>1.1732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1968.6</v>
+      </c>
+      <c r="B9">
+        <v>1.6307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2051.5</v>
+      </c>
+      <c r="B10">
+        <v>1.4456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2134.3000000000002</v>
+      </c>
+      <c r="B11">
+        <v>1.7205999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2217.1999999999998</v>
+      </c>
+      <c r="B12">
+        <v>1.7515000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2300.1</v>
+      </c>
+      <c r="B13">
+        <v>1.9597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2383</v>
+      </c>
+      <c r="B14">
+        <v>1.9621999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2465.8000000000002</v>
+      </c>
+      <c r="B15">
+        <v>1.6537999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2548.6999999999998</v>
+      </c>
+      <c r="B16">
+        <v>1.3736999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2631.6</v>
+      </c>
+      <c r="B17">
+        <v>1.4148000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2714.4</v>
+      </c>
+      <c r="B18">
+        <v>1.8774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2797.3</v>
+      </c>
+      <c r="B19">
+        <v>1.7025999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2880.2</v>
+      </c>
+      <c r="B20">
+        <v>1.9827999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2963</v>
+      </c>
+      <c r="B21">
+        <v>1.9494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>3045.9</v>
+      </c>
+      <c r="B22">
+        <v>1.276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>3128.8</v>
+      </c>
+      <c r="B23">
+        <v>2.0522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>3211.7</v>
+      </c>
+      <c r="B24">
+        <v>2.0573000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>3294.5</v>
+      </c>
+      <c r="B25">
+        <v>2.1806999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>3377.4</v>
+      </c>
+      <c r="B26">
+        <v>2.0958999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>3460.3</v>
+      </c>
+      <c r="B27">
+        <v>2.1575000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>3543.1</v>
+      </c>
+      <c r="B28">
+        <v>1.7797000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>3626</v>
+      </c>
+      <c r="B29">
+        <v>1.3736999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>3697.7</v>
+      </c>
+      <c r="B30">
+        <v>3.8563000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>3769.3</v>
+      </c>
+      <c r="B31">
+        <v>2.3092000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>3841</v>
+      </c>
+      <c r="B32">
+        <v>3.165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>3905.3</v>
+      </c>
+      <c r="B33">
+        <v>2.0804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>3969.7</v>
+      </c>
+      <c r="B34">
+        <v>4.9767999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>4034</v>
+      </c>
+      <c r="B35">
+        <v>11.398999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>4087.3</v>
+      </c>
+      <c r="B36">
+        <v>1.7848999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>4140.7</v>
+      </c>
+      <c r="B37">
+        <v>2.0419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>4194</v>
+      </c>
+      <c r="B38">
+        <v>1.4019999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>4407.7</v>
+      </c>
+      <c r="B39">
+        <v>1.9956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>4621.3</v>
+      </c>
+      <c r="B40">
+        <v>2.0882000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>4835</v>
+      </c>
+      <c r="B41">
+        <v>1.8311999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>4900.3</v>
+      </c>
+      <c r="B42">
+        <v>1.4919</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>4965.6000000000004</v>
+      </c>
+      <c r="B43">
+        <v>2.3169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>5030.8</v>
+      </c>
+      <c r="B44">
+        <v>2.6021000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>5096.1000000000004</v>
+      </c>
+      <c r="B45">
+        <v>2.286</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B200">
+    <sortCondition ref="A1:A200"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2FB77A-DA32-4E76-B912-E048F3E82BA4}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4040,11 +3944,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aakanksha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB081854-D8C9-4835-96DC-E52C955D2376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89830C51-5C80-4128-B7A1-8452A79E5CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{5BB353A8-6D0B-4EC7-B165-44C03D190F2F}"/>
   </bookViews>
